--- a/Métriques discriminantes/Tableau métriques/moyenne/2023_2024/Stats Bomb/metriques.xlsx
+++ b/Métriques discriminantes/Tableau métriques/moyenne/2023_2024/Stats Bomb/metriques.xlsx
@@ -1305,7 +1305,7 @@
         <v>36</v>
       </c>
       <c r="C2" t="n">
-        <v>17.25907</v>
+        <v>17.259071</v>
       </c>
       <c r="D2" t="n">
         <v>14.92105263157895</v>
@@ -1320,10 +1320,10 @@
         <v>3.894736842105263</v>
       </c>
       <c r="H2" t="n">
-        <v>1.371331131771991</v>
+        <v>1.371331134909078</v>
       </c>
       <c r="I2" t="n">
-        <v>1.082249423390941</v>
+        <v>1.082249420253854</v>
       </c>
       <c r="J2" t="n">
         <v>0.2890817131602058</v>
@@ -1332,13 +1332,13 @@
         <v>0.09190578561611276</v>
       </c>
       <c r="L2" t="n">
-        <v>15.73098028273809</v>
+        <v>15.73097511574074</v>
       </c>
       <c r="M2" t="n">
-        <v>16.50727410874105</v>
+        <v>16.507272943392</v>
       </c>
       <c r="N2" t="n">
-        <v>13.53322127058699</v>
+        <v>13.53321962098818</v>
       </c>
       <c r="O2" t="n">
         <v>182.3947368421053</v>
@@ -1347,13 +1347,13 @@
         <v>0.572061727721999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8846942704775006</v>
+        <v>0.8846940893530416</v>
       </c>
       <c r="R2" t="n">
         <v>2.620769361393861</v>
       </c>
       <c r="S2" t="n">
-        <v>41.23666951894224</v>
+        <v>41.23666658852213</v>
       </c>
       <c r="T2" t="n">
         <v>0.4287790697674418</v>
@@ -1365,13 +1365,13 @@
         <v>3.210526315789474</v>
       </c>
       <c r="W2" t="n">
-        <v>46.2851845698405</v>
+        <v>46.28518079386177</v>
       </c>
       <c r="X2" t="n">
         <v>8.86451048951049</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.221403327866831</v>
+        <v>5.221402901900983</v>
       </c>
       <c r="Z2" t="n">
         <v>0.789648107977826</v>
@@ -1398,19 +1398,19 @@
         <v>0.7299577742815018</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.2075528034474701</v>
+        <v>0.2075528018789268</v>
       </c>
       <c r="AI2" t="n">
         <v>0.09279951453208923</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16.45656840006511</v>
+        <v>16.45656458536784</v>
       </c>
       <c r="AK2" t="n">
-        <v>17.11269600509752</v>
+        <v>17.11268907912234</v>
       </c>
       <c r="AL2" t="n">
-        <v>13.89280639648437</v>
+        <v>13.89280883789062</v>
       </c>
       <c r="AM2" t="n">
         <v>2.763157894736842</v>
@@ -1425,7 +1425,7 @@
         <v>0.2116798883745153</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.03351597785949707</v>
+        <v>0.03351598183314006</v>
       </c>
       <c r="AR2" t="n">
         <v>13.8421052631579</v>
@@ -1434,7 +1434,7 @@
         <v>0.04904197739731325</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.003542956290589539</v>
+        <v>0.0035429567438568</v>
       </c>
       <c r="AU2" t="n">
         <v>0.2894736842105263</v>
@@ -1590,7 +1590,7 @@
         <v>0.001203369434416366</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0370475589829003</v>
+        <v>0.0370475525824016</v>
       </c>
       <c r="CU2" t="n">
         <v>0.456375838926175</v>
@@ -1632,7 +1632,7 @@
         <v>42.3157894736842</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.006831532094016</v>
+        <v>0.00683153387325913</v>
       </c>
       <c r="DI2" t="n">
         <v>0.0920398009950249</v>
@@ -1698,10 +1698,10 @@
         <v>0.8157894736842105</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.4541860379670796</v>
+        <v>0.4541860411041661</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.4335676196374391</v>
+        <v>0.4335676227745257</v>
       </c>
       <c r="EF2" t="n">
         <v>5.315789473684211</v>
@@ -1761,28 +1761,28 @@
         <v>36.31578947368421</v>
       </c>
       <c r="EY2" t="n">
-        <v>2.221798747777939</v>
+        <v>2.221798743072309</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.9704685472932301</v>
+        <v>0.9704685504303167</v>
       </c>
       <c r="FA2" t="n">
         <v>-0.003026139383253298</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.3681824245048981</v>
+        <v>0.3681824209756757</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.8690982778605661</v>
+        <v>0.8690982841347393</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.01707575896656827</v>
+        <v>0.01707575975083991</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.387189238087127</v>
+        <v>1.387189216127521</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.6170543195973885</v>
+        <v>0.6170543258715617</v>
       </c>
       <c r="FG2" t="n">
         <v>-0.1126031520727434</v>
@@ -1791,7 +1791,7 @@
         <v>0.3204331694072799</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.6788658950673906</v>
+        <v>0.6788658989887488</v>
       </c>
       <c r="FJ2" t="n">
         <v>-0.1169286041373485</v>
@@ -1849,28 +1849,28 @@
         <v>0.2245869777459455</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1045794049208572</v>
+        <v>0.1045794238523573</v>
       </c>
       <c r="L3" t="n">
-        <v>16.09467446301178</v>
+        <v>16.09467203977978</v>
       </c>
       <c r="M3" t="n">
-        <v>16.53732531456271</v>
+        <v>16.53732853754125</v>
       </c>
       <c r="N3" t="n">
-        <v>14.7534375</v>
+        <v>14.75343872070312</v>
       </c>
       <c r="O3" t="n">
         <v>185.921052631579</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5224720149717264</v>
+        <v>0.5224720149717265</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8676592161457484</v>
+        <v>0.8676593381224965</v>
       </c>
       <c r="R3" t="n">
-        <v>2.752475285784456</v>
+        <v>2.752475285784457</v>
       </c>
       <c r="S3" t="n">
         <v>34.63405123873874</v>
@@ -1885,13 +1885,13 @@
         <v>1.789473684210526</v>
       </c>
       <c r="W3" t="n">
-        <v>46.75891302244582</v>
+        <v>46.75893720975233</v>
       </c>
       <c r="X3" t="n">
         <v>10.15745079662605</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.603410241276037</v>
+        <v>4.603412622513908</v>
       </c>
       <c r="Z3" t="n">
         <v>0.7933731910376041</v>
@@ -1921,16 +1921,16 @@
         <v>0.2160207221627627</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.09024226393329499</v>
+        <v>0.0902422552239405</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16.75852931471176</v>
+        <v>16.75852597031963</v>
       </c>
       <c r="AK3" t="n">
-        <v>17.55554752407477</v>
+        <v>17.55555194958459</v>
       </c>
       <c r="AL3" t="n">
-        <v>14.29296875</v>
+        <v>14.29296989084404</v>
       </c>
       <c r="AM3" t="n">
         <v>2.578947368421053</v>
@@ -1945,7 +1945,7 @@
         <v>0.1735915745804577</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.03265583869254235</v>
+        <v>0.03265584105312234</v>
       </c>
       <c r="AR3" t="n">
         <v>12.55263157894737</v>
@@ -1954,7 +1954,7 @@
         <v>0.04186295507181632</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.003334994086179593</v>
+        <v>0.003334994336094247</v>
       </c>
       <c r="AU3" t="n">
         <v>0.1842105263157895</v>
@@ -1963,7 +1963,7 @@
         <v>0.008150096271971339</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.04424337829862322</v>
+        <v>0.04424338255609785</v>
       </c>
       <c r="AX3" t="n">
         <v>23.07894736842105</v>
@@ -2128,13 +2128,13 @@
         <v>0.00201612903225806</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.0359905873026167</v>
+        <v>0.035990583045142</v>
       </c>
       <c r="DA3" t="n">
         <v>0</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.00114221891499884</v>
+        <v>0.0011422188463299</v>
       </c>
       <c r="DC3" t="n">
         <v>0.0126728110599078</v>
@@ -2152,7 +2152,7 @@
         <v>41.1315789473684</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.00546020768959402</v>
+        <v>0.00546020829975033</v>
       </c>
       <c r="DI3" t="n">
         <v>0.0639795265515035</v>
@@ -2167,7 +2167,7 @@
         <v>40.7631578947368</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.00529941118017484</v>
+        <v>0.0052994117958458</v>
       </c>
       <c r="DN3" t="n">
         <v>0.06907682375726271</v>
@@ -2281,19 +2281,19 @@
         <v>37.47368421052632</v>
       </c>
       <c r="EY3" t="n">
-        <v>1.70044517124954</v>
+        <v>1.700445183797886</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.6756812464445829</v>
+        <v>0.6756812454642434</v>
       </c>
       <c r="FA3" t="n">
         <v>0.07869087620393227</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.2896451476569238</v>
+        <v>0.289645147264788</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.7582381381408164</v>
+        <v>0.7582381397093597</v>
       </c>
       <c r="FD3" t="n">
         <v>-0.1018101423856263</v>
@@ -2302,7 +2302,7 @@
         <v>1.405738947618949</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.5794474249215502</v>
+        <v>0.5794474264900935</v>
       </c>
       <c r="FG3" t="n">
         <v>-0.0532264799663895</v>
@@ -2375,7 +2375,7 @@
         <v>16.57588509177063</v>
       </c>
       <c r="M4" t="n">
-        <v>17.57676451187335</v>
+        <v>17.57676322353232</v>
       </c>
       <c r="N4" t="n">
         <v>13.90452210332306</v>
@@ -2384,16 +2384,16 @@
         <v>188.4358974358974</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5286560751247792</v>
+        <v>0.5286560751247793</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8721377742695453</v>
+        <v>0.872137774269545</v>
       </c>
       <c r="R4" t="n">
         <v>2.663368416091041</v>
       </c>
       <c r="S4" t="n">
-        <v>34.97067064352856</v>
+        <v>34.97067346800434</v>
       </c>
       <c r="T4" t="n">
         <v>0.4689075630252101</v>
@@ -2405,13 +2405,13 @@
         <v>2.282051282051282</v>
       </c>
       <c r="W4" t="n">
-        <v>44.46935096153846</v>
+        <v>44.46935779064685</v>
       </c>
       <c r="X4" t="n">
         <v>9.304311073541843</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.779435103797583</v>
+        <v>4.779435837770076</v>
       </c>
       <c r="Z4" t="n">
         <v>0.7936534308024589</v>
@@ -2441,16 +2441,16 @@
         <v>0.2685914459900978</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.07924795256018902</v>
+        <v>0.07924796098115429</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17.27685978028422</v>
+        <v>17.27685870240066</v>
       </c>
       <c r="AK4" t="n">
         <v>18.3592481737013</v>
       </c>
       <c r="AL4" t="n">
-        <v>14.97771753771552</v>
+        <v>14.97771585398707</v>
       </c>
       <c r="AM4" t="n">
         <v>3.025641025641026</v>
@@ -2474,7 +2474,7 @@
         <v>0.03061796329581203</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.002155416063453316</v>
+        <v>0.002155416278632539</v>
       </c>
       <c r="AU4" t="n">
         <v>0.6153846153846154</v>
@@ -2648,7 +2648,7 @@
         <v>0.00334448160535117</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.0415443224566323</v>
+        <v>0.0415443181991577</v>
       </c>
       <c r="DA4" t="n">
         <v>0</v>
@@ -2672,7 +2672,7 @@
         <v>42.2307692307692</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.00666227091712234</v>
+        <v>0.00666227149615957</v>
       </c>
       <c r="DI4" t="n">
         <v>0.08621736490588949</v>
@@ -2687,7 +2687,7 @@
         <v>41.7948717948718</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.00642642155746741</v>
+        <v>0.00642642097239114</v>
       </c>
       <c r="DN4" t="n">
         <v>0.0889570552147239</v>
@@ -2804,22 +2804,22 @@
         <v>1.987367383562602</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.7344644345725194</v>
+        <v>0.7344644315158709</v>
       </c>
       <c r="FA4" t="n">
         <v>-0.0792745906764116</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.3781845039950731</v>
+        <v>0.3781845041144735</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.9136002844151778</v>
+        <v>0.9136002905284747</v>
       </c>
       <c r="FD4" t="n">
         <v>0.04039228148758411</v>
       </c>
       <c r="FE4" t="n">
-        <v>1.512342620736513</v>
+        <v>1.512342614623216</v>
       </c>
       <c r="FF4" t="n">
         <v>0.7667827841181022</v>
@@ -2834,7 +2834,7 @@
         <v>0.8063837236318833</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0.02475867019249843</v>
+        <v>-0.02475867172082265</v>
       </c>
       <c r="FK4" t="n">
         <v>519.4871794871794</v>
@@ -2865,7 +2865,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>8.964065</v>
+        <v>8.964062999999999</v>
       </c>
       <c r="D5" t="n">
         <v>13</v>
@@ -2889,16 +2889,16 @@
         <v>0.2908611910184845</v>
       </c>
       <c r="K5" t="n">
-        <v>0.09782444880558894</v>
+        <v>0.09782444146963266</v>
       </c>
       <c r="L5" t="n">
-        <v>16.07606482872596</v>
+        <v>16.07606858473558</v>
       </c>
       <c r="M5" t="n">
-        <v>16.57652349057405</v>
+        <v>16.57652481742527</v>
       </c>
       <c r="N5" t="n">
-        <v>14.8644232498972</v>
+        <v>14.86442485608553</v>
       </c>
       <c r="O5" t="n">
         <v>184.775</v>
@@ -2907,7 +2907,7 @@
         <v>0.4584349736860905</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8856149689887466</v>
+        <v>0.8856148733844644</v>
       </c>
       <c r="R5" t="n">
         <v>2.944542253870007</v>
@@ -2925,13 +2925,13 @@
         <v>2.2</v>
       </c>
       <c r="W5" t="n">
-        <v>43.1928766634981</v>
+        <v>43.1928803766635</v>
       </c>
       <c r="X5" t="n">
         <v>12.01342281879195</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.595384705509059</v>
+        <v>3.595385014593777</v>
       </c>
       <c r="Z5" t="n">
         <v>0.8027091555815427</v>
@@ -2970,7 +2970,7 @@
         <v>17.63223438659125</v>
       </c>
       <c r="AL5" t="n">
-        <v>14.3471435546875</v>
+        <v>14.34714192708333</v>
       </c>
       <c r="AM5" t="n">
         <v>4.375</v>
@@ -2985,7 +2985,7 @@
         <v>0.2275334258098155</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.04063096216746739</v>
+        <v>0.04063097068241665</v>
       </c>
       <c r="AR5" t="n">
         <v>14.125</v>
@@ -2994,7 +2994,7 @@
         <v>0.04339605025015771</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.003072286918100003</v>
+        <v>0.003072287129089895</v>
       </c>
       <c r="AU5" t="n">
         <v>0.45</v>
@@ -3003,7 +3003,7 @@
         <v>0.01736403276445344</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.03858673572540283</v>
+        <v>0.03858674234814114</v>
       </c>
       <c r="AX5" t="n">
         <v>20.325</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.0394388521221322</v>
+        <v>0.0394388565994764</v>
       </c>
       <c r="CU5" t="n">
         <v>0.455399061032864</v>
@@ -3159,7 +3159,7 @@
         <v>0.0516431924882629</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.00739600218615486</v>
+        <v>0.00739600264910355</v>
       </c>
       <c r="CX5" t="n">
         <v>0.0524271844660194</v>
@@ -3168,7 +3168,7 @@
         <v>0.0058252427184466</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.026223013275548</v>
+        <v>0.0262230117070047</v>
       </c>
       <c r="DA5" t="n">
         <v>0.0526315789473684</v>
@@ -3192,7 +3192,7 @@
         <v>40.5</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.0071817574677644</v>
+        <v>0.00718175687907655</v>
       </c>
       <c r="DI5" t="n">
         <v>0.09382716049382719</v>
@@ -3321,37 +3321,37 @@
         <v>42.025</v>
       </c>
       <c r="EY5" t="n">
-        <v>1.903880479931831</v>
+        <v>1.903880468010902</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.8042627267539502</v>
+        <v>0.8042627327144146</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.01991564072668552</v>
+        <v>0.01991564035415649</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.4287465945351869</v>
+        <v>0.4287466034758836</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.8124902799725533</v>
+        <v>0.8124902755022049</v>
       </c>
       <c r="FD5" t="n">
-        <v>-0.1615349825005978</v>
+        <v>-0.1615349836181849</v>
       </c>
       <c r="FE5" t="n">
-        <v>1.719836102169938</v>
+        <v>1.719836120051332</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.8064807258546353</v>
+        <v>0.8064807318150997</v>
       </c>
       <c r="FG5" t="n">
         <v>-0.1111109492368996</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.3752288380172104</v>
+        <v>0.3752288384595886</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.7920421004295349</v>
+        <v>0.7920420974493027</v>
       </c>
       <c r="FJ5" t="n">
         <v>-0.142908138257917</v>
@@ -3385,7 +3385,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>10.284489</v>
+        <v>10.284488</v>
       </c>
       <c r="D6" t="n">
         <v>11.7948717948718</v>
@@ -3412,28 +3412,28 @@
         <v>0.1000568970389988</v>
       </c>
       <c r="L6" t="n">
-        <v>15.64516813858696</v>
+        <v>15.64516920006793</v>
       </c>
       <c r="M6" t="n">
-        <v>16.33402506510417</v>
+        <v>16.33402807918596</v>
       </c>
       <c r="N6" t="n">
-        <v>14.00405345243566</v>
+        <v>14.00405435001149</v>
       </c>
       <c r="O6" t="n">
         <v>179.6410256410256</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5586550251908373</v>
+        <v>0.5586550251908375</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8823089667427101</v>
+        <v>0.8823089667427098</v>
       </c>
       <c r="R6" t="n">
         <v>2.298701671575278</v>
       </c>
       <c r="S6" t="n">
-        <v>32.45047475594875</v>
+        <v>32.45047952257474</v>
       </c>
       <c r="T6" t="n">
         <v>0.4938271604938271</v>
@@ -3445,13 +3445,13 @@
         <v>2.769230769230769</v>
       </c>
       <c r="W6" t="n">
-        <v>43.7164457070707</v>
+        <v>43.71645359848485</v>
       </c>
       <c r="X6" t="n">
         <v>10.14891518737673</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.307499363227062</v>
+        <v>4.307500140789392</v>
       </c>
       <c r="Z6" t="n">
         <v>0.7946567975481409</v>
@@ -3484,13 +3484,13 @@
         <v>0.08594160192153033</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17.25687844669118</v>
+        <v>17.25687959558823</v>
       </c>
       <c r="AK6" t="n">
-        <v>17.98138903086059</v>
+        <v>17.98138598860981</v>
       </c>
       <c r="AL6" t="n">
-        <v>15.02064866286058</v>
+        <v>15.02064631535457</v>
       </c>
       <c r="AM6" t="n">
         <v>3.205128205128205</v>
@@ -3523,7 +3523,7 @@
         <v>0.0122544243454169</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.03982687989870707</v>
+        <v>0.03982687741518021</v>
       </c>
       <c r="AX6" t="n">
         <v>19.8974358974359</v>
@@ -3670,7 +3670,7 @@
         <v>0.001288659793814433</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.0370468412126814</v>
+        <v>0.0370468439374651</v>
       </c>
       <c r="CU6" t="n">
         <v>0.36</v>
@@ -3688,7 +3688,7 @@
         <v>0.00204498977505112</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.048373227318128</v>
+        <v>0.0483732322851817</v>
       </c>
       <c r="DA6" t="n">
         <v>0.0833333333333333</v>
@@ -3712,7 +3712,7 @@
         <v>38.1282051282051</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.008147083197813669</v>
+        <v>0.008147081915131331</v>
       </c>
       <c r="DI6" t="n">
         <v>0.0914593140551446</v>
@@ -3727,7 +3727,7 @@
         <v>39.6410256410256</v>
       </c>
       <c r="DM6" t="n">
-        <v>0.00623213520025374</v>
+        <v>0.00623213581711941</v>
       </c>
       <c r="DN6" t="n">
         <v>0.0672703751617076</v>
@@ -3905,7 +3905,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1.5816277</v>
+        <v>1.5816269</v>
       </c>
       <c r="D7" t="n">
         <v>11.8421052631579</v>
@@ -3926,31 +3926,31 @@
         <v>0.7611721486931569</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3026206531120758</v>
+        <v>0.3026206515435326</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08984222412109374</v>
+        <v>0.08984221564398871</v>
       </c>
       <c r="L7" t="n">
-        <v>16.38147243923611</v>
+        <v>16.38147352430556</v>
       </c>
       <c r="M7" t="n">
-        <v>17.30081148413313</v>
+        <v>17.30080997242647</v>
       </c>
       <c r="N7" t="n">
-        <v>13.73777456132192</v>
+        <v>13.73777553013393</v>
       </c>
       <c r="O7" t="n">
         <v>183.2631578947368</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5051824296571399</v>
+        <v>0.5051824296571394</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8558497216259829</v>
+        <v>0.8558498907885428</v>
       </c>
       <c r="R7" t="n">
-        <v>2.604786194634993</v>
+        <v>2.604786194634992</v>
       </c>
       <c r="S7" t="n">
         <v>41.35791406945681</v>
@@ -3965,13 +3965,13 @@
         <v>2.684210526315789</v>
       </c>
       <c r="W7" t="n">
-        <v>44.30377864704514</v>
+        <v>44.30378591786878</v>
       </c>
       <c r="X7" t="n">
         <v>9.984224364592462</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.43737811062838</v>
+        <v>4.437378838859575</v>
       </c>
       <c r="Z7" t="n">
         <v>0.8024189232580542</v>
@@ -3992,22 +3992,22 @@
         <v>3.342105263157895</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.022299084224199</v>
+        <v>1.022299087361286</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.7999665552848264</v>
+        <v>0.799966558421913</v>
       </c>
       <c r="AH7" t="n">
         <v>0.2223325130578719</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.09076485678414319</v>
+        <v>0.0907648478712991</v>
       </c>
       <c r="AJ7" t="n">
         <v>16.98136203088493</v>
       </c>
       <c r="AK7" t="n">
-        <v>17.70260103041943</v>
+        <v>17.70259940822259</v>
       </c>
       <c r="AL7" t="n">
         <v>15.27196688914862</v>
@@ -4025,7 +4025,7 @@
         <v>0.1982142198830843</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.03943528430000025</v>
+        <v>0.03943528929305951</v>
       </c>
       <c r="AR7" t="n">
         <v>16.65789473684211</v>
@@ -4034,7 +4034,7 @@
         <v>0.06507405310281013</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.003906498964740579</v>
+        <v>0.003906499341389202</v>
       </c>
       <c r="AU7" t="n">
         <v>0.4736842105263158</v>
@@ -4043,7 +4043,7 @@
         <v>0.03704194883864961</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.07819967799716526</v>
+        <v>0.07819967137442695</v>
       </c>
       <c r="AX7" t="n">
         <v>20.57894736842105</v>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.0349318880023378</v>
+        <v>0.0349318851124157</v>
       </c>
       <c r="CU7" t="n">
         <v>0.448484848484848</v>
@@ -4208,7 +4208,7 @@
         <v>0.00183823529411765</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.0346091501414776</v>
+        <v>0.0346091538667679</v>
       </c>
       <c r="DA7" t="n">
         <v>0.0625</v>
@@ -4232,7 +4232,7 @@
         <v>42.7368421052632</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.00708102710141337</v>
+        <v>0.00708102592693761</v>
       </c>
       <c r="DI7" t="n">
         <v>0.0775862068965517</v>
@@ -4298,10 +4298,10 @@
         <v>0.1578947368421053</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.04162178227775976</v>
+        <v>0.04162177914067319</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.04162179168901945</v>
+        <v>0.04162178855193289</v>
       </c>
       <c r="EF7" t="n">
         <v>3.763157894736842</v>
@@ -4361,40 +4361,40 @@
         <v>40.36842105263158</v>
       </c>
       <c r="EY7" t="n">
-        <v>1.539460790980803</v>
+        <v>1.539460787843717</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.7540328618335096</v>
+        <v>0.7540328665391395</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0.135499977849816</v>
+        <v>-0.1354999762812727</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.4075444089738946</v>
+        <v>0.4075444050525364</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.753353415351165</v>
+        <v>0.7533534224096098</v>
       </c>
       <c r="FD7" t="n">
         <v>-0.2464557948547441</v>
       </c>
       <c r="FE7" t="n">
-        <v>1.269234356225321</v>
+        <v>1.269234348382605</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.7217012220552486</v>
+        <v>0.7217012126439888</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0.2321832556473581</v>
+        <v>-0.2321832572159014</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.3094630876654073</v>
+        <v>0.309463090410358</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.7230463266176613</v>
+        <v>0.7230463407345509</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0.2532169736162024</v>
+        <v>-0.2532169728319308</v>
       </c>
       <c r="FK7" t="n">
         <v>499.8421052631579</v>
@@ -4425,7 +4425,7 @@
         <v>-5</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.80732757</v>
+        <v>-0.8073273</v>
       </c>
       <c r="D8" t="n">
         <v>10.89473684210526</v>
@@ -4455,7 +4455,7 @@
         <v>16.00555390436292</v>
       </c>
       <c r="M8" t="n">
-        <v>17.16285241168478</v>
+        <v>17.16285064254982</v>
       </c>
       <c r="N8" t="n">
         <v>13.69095069774683</v>
@@ -4464,13 +4464,13 @@
         <v>184.0263157894737</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4462592744196919</v>
+        <v>0.446259274419692</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.8724322461621564</v>
+        <v>0.8724321796411804</v>
       </c>
       <c r="R8" t="n">
-        <v>2.80434494095231</v>
+        <v>2.804344940952309</v>
       </c>
       <c r="S8" t="n">
         <v>46.63954896479185</v>
@@ -4485,13 +4485,13 @@
         <v>2.052631578947369</v>
       </c>
       <c r="W8" t="n">
-        <v>45.11751446331856</v>
+        <v>45.11751830994584</v>
       </c>
       <c r="X8" t="n">
         <v>12.32330827067669</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.661152790495039</v>
+        <v>3.66115310263746</v>
       </c>
       <c r="Z8" t="n">
         <v>0.8133167392657125</v>
@@ -4524,13 +4524,13 @@
         <v>0.08976489950295803</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16.93555331670515</v>
+        <v>16.93555202836412</v>
       </c>
       <c r="AK8" t="n">
         <v>17.39308286516854</v>
       </c>
       <c r="AL8" t="n">
-        <v>15.84483010428292</v>
+        <v>15.84482901436942</v>
       </c>
       <c r="AM8" t="n">
         <v>2.921052631578947</v>
@@ -4545,7 +4545,7 @@
         <v>0.2102838983563216</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0427314865397897</v>
+        <v>0.04273148908972103</v>
       </c>
       <c r="AR8" t="n">
         <v>14.1578947368421</v>
@@ -4554,7 +4554,7 @@
         <v>0.08707183040678501</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.006150054665746299</v>
+        <v>0.006150055108903509</v>
       </c>
       <c r="AU8" t="n">
         <v>0.2631578947368421</v>
@@ -4719,7 +4719,7 @@
         <v>0.0285714285714286</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.00304978795412208</v>
+        <v>0.00304978775377033</v>
       </c>
       <c r="CX8" t="n">
         <v>0.0504201680672269</v>
@@ -4752,7 +4752,7 @@
         <v>40.7894736842105</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.00783974370648784</v>
+        <v>0.00783974309121409</v>
       </c>
       <c r="DI8" t="n">
         <v>0.0890322580645161</v>
@@ -4767,7 +4767,7 @@
         <v>41.5526315789474</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.00512997540890076</v>
+        <v>0.00512997480492716</v>
       </c>
       <c r="DN8" t="n">
         <v>0.0709309689677011</v>
@@ -4881,40 +4881,40 @@
         <v>43.52631578947368</v>
       </c>
       <c r="EY8" t="n">
-        <v>1.329430699152382</v>
+        <v>1.329430674055689</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.7513805939570853</v>
+        <v>0.7513805970941719</v>
       </c>
       <c r="FA8" t="n">
         <v>-0.1392258564500432</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.1882798639738834</v>
+        <v>0.1882798624053401</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.6718281405536752</v>
+        <v>0.6718281374165886</v>
       </c>
       <c r="FD8" t="n">
         <v>-0.1428322658236874</v>
       </c>
       <c r="FE8" t="n">
-        <v>1.537120823013155</v>
+        <v>1.537120800269278</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.5376927927381506</v>
+        <v>0.537692791953879</v>
       </c>
       <c r="FG8" t="n">
         <v>-0.0630840423860048</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.2739016117135945</v>
+        <v>0.2739016119096624</v>
       </c>
       <c r="FI8" t="n">
         <v>0.837645593442415</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0.04896741409442926</v>
+        <v>-0.04896741723151583</v>
       </c>
       <c r="FK8" t="n">
         <v>440</v>
@@ -5465,7 +5465,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.890854</v>
+        <v>12.890853</v>
       </c>
       <c r="D10" t="n">
         <v>13.21052631578947</v>
@@ -5489,13 +5489,13 @@
         <v>0.3180186585523188</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0892386417464906</v>
+        <v>0.08923866454348621</v>
       </c>
       <c r="L10" t="n">
-        <v>16.90032448331673</v>
+        <v>16.90032642866036</v>
       </c>
       <c r="M10" t="n">
-        <v>17.6005859375</v>
+        <v>17.60058305678466</v>
       </c>
       <c r="N10" t="n">
         <v>15.4439599908934</v>
@@ -5504,16 +5504,16 @@
         <v>187.6578947368421</v>
       </c>
       <c r="P10" t="n">
-        <v>0.4732169459974475</v>
+        <v>0.4732169459974473</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.8715084741829474</v>
+        <v>0.8715085316094856</v>
       </c>
       <c r="R10" t="n">
         <v>2.597390983688571</v>
       </c>
       <c r="S10" t="n">
-        <v>51.65064639136905</v>
+        <v>51.65065026661706</v>
       </c>
       <c r="T10" t="n">
         <v>0.4202334630350195</v>
@@ -5564,13 +5564,13 @@
         <v>0.08563380014328729</v>
       </c>
       <c r="AJ10" t="n">
-        <v>16.65952991303944</v>
+        <v>16.65953281947545</v>
       </c>
       <c r="AK10" t="n">
-        <v>17.23807286218619</v>
+        <v>17.23807081916841</v>
       </c>
       <c r="AL10" t="n">
-        <v>15.23405409350838</v>
+        <v>15.23405283505155</v>
       </c>
       <c r="AM10" t="n">
         <v>2.631578947368421</v>
@@ -5585,7 +5585,7 @@
         <v>0.2238243900386518</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.04548302818747128</v>
+        <v>0.04548303328733393</v>
       </c>
       <c r="AR10" t="n">
         <v>15.31578947368421</v>
@@ -5594,7 +5594,7 @@
         <v>0.07377933000067347</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.004817206835009388</v>
+        <v>0.004817207244663304</v>
       </c>
       <c r="AU10" t="n">
         <v>0.5</v>
@@ -5603,7 +5603,7 @@
         <v>0.01747147745060685</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.03494295321012798</v>
+        <v>0.03494295634721455</v>
       </c>
       <c r="AX10" t="n">
         <v>23.42105263157895</v>
@@ -5768,7 +5768,7 @@
         <v>0.00357142857142857</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.024411012729009</v>
+        <v>0.0244110147158305</v>
       </c>
       <c r="DA10" t="n">
         <v>0.06666666666666669</v>
@@ -5792,7 +5792,7 @@
         <v>44.1578947368421</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.00720185233242321</v>
+        <v>0.00720185346910297</v>
       </c>
       <c r="DI10" t="n">
         <v>0.09713945172824789</v>
@@ -5942,7 +5942,7 @@
         <v>1.56487257268868</v>
       </c>
       <c r="FF10" t="n">
-        <v>0.5891351522387642</v>
+        <v>0.5891351538073075</v>
       </c>
       <c r="FG10" t="n">
         <v>-0.01719131810884727</v>
@@ -5951,7 +5951,7 @@
         <v>0.2730981913689328</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.7367288921224443</v>
+        <v>0.7367288905539011</v>
       </c>
       <c r="FJ10" t="n">
         <v>-0.01689800688855987</v>
@@ -5985,7 +5985,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.087696</v>
+        <v>-13.087694</v>
       </c>
       <c r="D11" t="n">
         <v>11.13157894736842</v>
@@ -6009,7 +6009,7 @@
         <v>0.1754940562930546</v>
       </c>
       <c r="K11" t="n">
-        <v>0.09014144067786828</v>
+        <v>0.09014141362327774</v>
       </c>
       <c r="L11" t="n">
         <v>16.90132678597813</v>
@@ -6018,22 +6018,22 @@
         <v>17.71570012019231</v>
       </c>
       <c r="N11" t="n">
-        <v>14.20059390943878</v>
+        <v>14.20059515505421</v>
       </c>
       <c r="O11" t="n">
         <v>184.4473684210526</v>
       </c>
       <c r="P11" t="n">
-        <v>0.4885256868550892</v>
+        <v>0.4885256868550891</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8830574844645247</v>
+        <v>0.8830573721247909</v>
       </c>
       <c r="R11" t="n">
         <v>2.734081209091829</v>
       </c>
       <c r="S11" t="n">
-        <v>40.63926298814505</v>
+        <v>40.63926571216876</v>
       </c>
       <c r="T11" t="n">
         <v>0.4498714652956298</v>
@@ -6045,13 +6045,13 @@
         <v>1.710526315789474</v>
       </c>
       <c r="W11" t="n">
-        <v>42.85289483440435</v>
+        <v>42.8528909725655</v>
       </c>
       <c r="X11" t="n">
         <v>12.07661290322581</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.548420006321296</v>
+        <v>3.548419686542986</v>
       </c>
       <c r="Z11" t="n">
         <v>0.8094924526390437</v>
@@ -6081,13 +6081,13 @@
         <v>0.2720673122492276</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.1002664357483032</v>
+        <v>0.1002664509160855</v>
       </c>
       <c r="AJ11" t="n">
-        <v>16.81996109281809</v>
+        <v>16.81995915134195</v>
       </c>
       <c r="AK11" t="n">
-        <v>17.13056843021373</v>
+        <v>17.13056969519106</v>
       </c>
       <c r="AL11" t="n">
         <v>15.7952140090812</v>
@@ -6105,7 +6105,7 @@
         <v>0.1328785965513242</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.02987802381346212</v>
+        <v>0.02987802945650541</v>
       </c>
       <c r="AR11" t="n">
         <v>14.57894736842105</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.0316758833296312</v>
+        <v>0.0316758781182961</v>
       </c>
       <c r="CU11" t="n">
         <v>0.322404371584699</v>
@@ -6327,7 +6327,7 @@
         <v>39.8157894736842</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.00683315085482298</v>
+        <v>0.00683315148514308</v>
       </c>
       <c r="DN11" t="n">
         <v>0.0773298083278255</v>
@@ -6441,7 +6441,7 @@
         <v>43.31578947368421</v>
       </c>
       <c r="EY11" t="n">
-        <v>1.994460891785198</v>
+        <v>1.994460894922285</v>
       </c>
       <c r="EZ11" t="n">
         <v>0.7939309877049374</v>
@@ -6450,7 +6450,7 @@
         <v>0.1857510524752893</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.41448213581584</v>
+        <v>0.4144821366001117</v>
       </c>
       <c r="FC11" t="n">
         <v>0.7167749985268241</v>
@@ -6505,7 +6505,7 @@
         <v>-1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.555243</v>
+        <v>5.5552444</v>
       </c>
       <c r="D12" t="n">
         <v>11.02631578947368</v>
@@ -6529,28 +6529,28 @@
         <v>0.256814110705531</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1096355647631078</v>
+        <v>0.1096355738673973</v>
       </c>
       <c r="L12" t="n">
         <v>16.38525157555191</v>
       </c>
       <c r="M12" t="n">
-        <v>17.30384469110973</v>
+        <v>17.30384630259901</v>
       </c>
       <c r="N12" t="n">
-        <v>13.98582300646552</v>
+        <v>13.9858240587958</v>
       </c>
       <c r="O12" t="n">
         <v>184.7368421052632</v>
       </c>
       <c r="P12" t="n">
-        <v>0.4945720357485348</v>
+        <v>0.4945720357485349</v>
       </c>
       <c r="Q12" t="n">
         <v>0.8903654943554297</v>
       </c>
       <c r="R12" t="n">
-        <v>2.70611481779719</v>
+        <v>2.706114817797189</v>
       </c>
       <c r="S12" t="n">
         <v>37.87330028678797</v>
@@ -6565,13 +6565,13 @@
         <v>2.052631578947369</v>
       </c>
       <c r="W12" t="n">
-        <v>41.16100011515431</v>
+        <v>41.16099651658222</v>
       </c>
       <c r="X12" t="n">
         <v>11.64408493427705</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.534927849417125</v>
+        <v>3.534927540369904</v>
       </c>
       <c r="Z12" t="n">
         <v>0.8021938407662993</v>
@@ -6601,13 +6601,13 @@
         <v>0.1630124762458237</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.09229943998191388</v>
+        <v>0.09229946564131254</v>
       </c>
       <c r="AJ12" t="n">
-        <v>16.17669431404148</v>
+        <v>16.17669540884249</v>
       </c>
       <c r="AK12" t="n">
-        <v>16.31177463421243</v>
+        <v>16.31177181177746</v>
       </c>
       <c r="AL12" t="n">
         <v>15.70932006835938</v>
@@ -6625,7 +6625,7 @@
         <v>0.1979669318044264</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.03938608768722774</v>
+        <v>0.03938609268028698</v>
       </c>
       <c r="AR12" t="n">
         <v>12.57894736842105</v>
@@ -6634,7 +6634,7 @@
         <v>0.03828782720589324</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.003043801964077491</v>
+        <v>0.00304380221346931</v>
       </c>
       <c r="AU12" t="n">
         <v>0.4473684210526316</v>
@@ -6643,7 +6643,7 @@
         <v>0.02055934790864979</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.04595619089463178</v>
+        <v>0.04595618738847621</v>
       </c>
       <c r="AX12" t="n">
         <v>18.94736842105263</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.0229467391967773</v>
+        <v>0.0229467377066612</v>
       </c>
       <c r="CU12" t="n">
         <v>0.3375</v>
@@ -6808,7 +6808,7 @@
         <v>0.00205761316872428</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.0414673748769258</v>
+        <v>0.0414673717398393</v>
       </c>
       <c r="DA12" t="n">
         <v>0.105263157894737</v>
@@ -6832,7 +6832,7 @@
         <v>37</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.0069409223911942</v>
+        <v>0.00694092171290521</v>
       </c>
       <c r="DI12" t="n">
         <v>0.0825035561877667</v>
@@ -6847,7 +6847,7 @@
         <v>39.8421052631579</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.00409146186697593</v>
+        <v>0.00409146218192782</v>
       </c>
       <c r="DN12" t="n">
         <v>0.0660501981505945</v>
@@ -6964,7 +6964,7 @@
         <v>1.877720978699232</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.6421015617486677</v>
+        <v>0.6421015615525999</v>
       </c>
       <c r="FA12" t="n">
         <v>-0.05381777412013004</v>
@@ -6988,7 +6988,7 @@
         <v>0.01212593197430435</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.3042266699240396</v>
+        <v>0.3042266683554963</v>
       </c>
       <c r="FI12" t="n">
         <v>0.9254568219184875</v>
@@ -7052,7 +7052,7 @@
         <v>0.08958624348495946</v>
       </c>
       <c r="L13" t="n">
-        <v>17.07145182291667</v>
+        <v>17.07144997336648</v>
       </c>
       <c r="M13" t="n">
         <v>17.55385716756185</v>
@@ -7067,10 +7067,10 @@
         <v>0.5958752645235039</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.8656191158320834</v>
+        <v>0.8656191158320832</v>
       </c>
       <c r="R13" t="n">
-        <v>2.41550781655592</v>
+        <v>2.415507816555919</v>
       </c>
       <c r="S13" t="n">
         <v>31.37783674217732</v>
@@ -7124,10 +7124,10 @@
         <v>0.09756961398654514</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17.09070421006944</v>
+        <v>17.090703125</v>
       </c>
       <c r="AK13" t="n">
-        <v>17.95970754373178</v>
+        <v>17.95970612017128</v>
       </c>
       <c r="AL13" t="n">
         <v>14.30502176730432</v>
@@ -7352,7 +7352,7 @@
         <v>42.3684210526316</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.00653673432628561</v>
+        <v>0.00653673314159701</v>
       </c>
       <c r="DI13" t="n">
         <v>0.08944099378881989</v>
@@ -7367,7 +7367,7 @@
         <v>36.5789473684211</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.0051552038398578</v>
+        <v>0.00515520418290612</v>
       </c>
       <c r="DN13" t="n">
         <v>0.07697841726618709</v>
@@ -7481,7 +7481,7 @@
         <v>33.47368421052632</v>
       </c>
       <c r="EY13" t="n">
-        <v>1.638302797941785</v>
+        <v>1.638302791667612</v>
       </c>
       <c r="EZ13" t="n">
         <v>0.7088578908067</v>
@@ -7569,16 +7569,16 @@
         <v>0.2016560604281135</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1038186167942659</v>
+        <v>0.1038186265008747</v>
       </c>
       <c r="L14" t="n">
-        <v>17.34316356552163</v>
+        <v>17.3431623230757</v>
       </c>
       <c r="M14" t="n">
-        <v>18.1277416332348</v>
+        <v>18.12773998363598</v>
       </c>
       <c r="N14" t="n">
-        <v>14.94898090165915</v>
+        <v>14.94898341857281</v>
       </c>
       <c r="O14" t="n">
         <v>191.1052631578947</v>
@@ -7587,13 +7587,13 @@
         <v>0.4724665796230721</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.8687380603899151</v>
+        <v>0.8687380603899152</v>
       </c>
       <c r="R14" t="n">
-        <v>2.776355760473334</v>
+        <v>2.776355760473333</v>
       </c>
       <c r="S14" t="n">
-        <v>42.54339506662436</v>
+        <v>42.54340002379442</v>
       </c>
       <c r="T14" t="n">
         <v>0.392896781354051</v>
@@ -7605,13 +7605,13 @@
         <v>1.631578947368421</v>
       </c>
       <c r="W14" t="n">
-        <v>44.34791805370617</v>
+        <v>44.34792152130493</v>
       </c>
       <c r="X14" t="n">
         <v>9.679896462467644</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.581445496411931</v>
+        <v>4.581445854638774</v>
       </c>
       <c r="Z14" t="n">
         <v>0.7863558597091531</v>
@@ -7647,7 +7647,7 @@
         <v>16.01969663558468</v>
       </c>
       <c r="AK14" t="n">
-        <v>17.4885185134243</v>
+        <v>17.48852023272447</v>
       </c>
       <c r="AL14" t="n">
         <v>13.23871744791667</v>
@@ -7665,7 +7665,7 @@
         <v>0.1418886048425185</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.03501147418827206</v>
+        <v>0.03501148038096242</v>
       </c>
       <c r="AR14" t="n">
         <v>13.05263157894737</v>
@@ -7830,7 +7830,7 @@
         <v>0</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.0470627094137258</v>
+        <v>0.0470627047158227</v>
       </c>
       <c r="CU14" t="n">
         <v>0.532019704433498</v>
@@ -7848,7 +7848,7 @@
         <v>0.00478468899521531</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.0682073086500168</v>
+        <v>0.0682073161005974</v>
       </c>
       <c r="DA14" t="n">
         <v>0</v>
@@ -7887,7 +7887,7 @@
         <v>46.4736842105263</v>
       </c>
       <c r="DM14" t="n">
-        <v>0.00731690958699176</v>
+        <v>0.00731691012701119</v>
       </c>
       <c r="DN14" t="n">
         <v>0.08493771234428089</v>
@@ -8001,7 +8001,7 @@
         <v>39.8421052631579</v>
       </c>
       <c r="EY14" t="n">
-        <v>1.631590742446286</v>
+        <v>1.631590752935919</v>
       </c>
       <c r="EZ14" t="n">
         <v>0.6737448699576291</v>
@@ -8010,16 +8010,16 @@
         <v>-0.01961785638214726</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.227785353009638</v>
+        <v>0.2277853498725515</v>
       </c>
       <c r="FC14" t="n">
         <v>0.7690076199605277</v>
       </c>
       <c r="FD14" t="n">
-        <v>-0.01932930142471665</v>
+        <v>-0.01932930456180322</v>
       </c>
       <c r="FE14" t="n">
-        <v>1.575485410266801</v>
+        <v>1.575485413403888</v>
       </c>
       <c r="FF14" t="n">
         <v>0.7194110364898255</v>
@@ -8089,13 +8089,13 @@
         <v>0.3197265904837925</v>
       </c>
       <c r="K15" t="n">
-        <v>0.09994462271717107</v>
+        <v>0.09994464054285923</v>
       </c>
       <c r="L15" t="n">
-        <v>16.33121098313376</v>
+        <v>16.33120756060164</v>
       </c>
       <c r="M15" t="n">
-        <v>16.95633980277535</v>
+        <v>16.95633809549825</v>
       </c>
       <c r="N15" t="n">
         <v>14.81223854443706</v>
@@ -8107,13 +8107,13 @@
         <v>0.4379674456303754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.8511725258760484</v>
+        <v>0.8511725258760482</v>
       </c>
       <c r="R15" t="n">
-        <v>3.289931702396463</v>
+        <v>3.289931702396464</v>
       </c>
       <c r="S15" t="n">
-        <v>45.92527972423147</v>
+        <v>45.92528325610307</v>
       </c>
       <c r="T15" t="n">
         <v>0.3386627906976744</v>
@@ -8125,13 +8125,13 @@
         <v>2.026315789473684</v>
       </c>
       <c r="W15" t="n">
-        <v>49.34318302309142</v>
+        <v>49.34318670475966</v>
       </c>
       <c r="X15" t="n">
         <v>9.245098039215685</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.337226583621766</v>
+        <v>5.337226981850993</v>
       </c>
       <c r="Z15" t="n">
         <v>0.7696263109662967</v>
@@ -8161,13 +8161,13 @@
         <v>0.2555811710557656</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.09215818132672991</v>
+        <v>0.09215817224411738</v>
       </c>
       <c r="AJ15" t="n">
-        <v>16.58467494419643</v>
+        <v>16.58467610677083</v>
       </c>
       <c r="AK15" t="n">
-        <v>17.09133292670266</v>
+        <v>17.09133130450581</v>
       </c>
       <c r="AL15" t="n">
         <v>15.30313648897059</v>
@@ -8185,7 +8185,7 @@
         <v>0.1898817474659728</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.04008614752027723</v>
+        <v>0.04008614222208659</v>
       </c>
       <c r="AR15" t="n">
         <v>14.26315789473684</v>
@@ -8194,7 +8194,7 @@
         <v>0.07877985040020001</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.005523309936382673</v>
+        <v>0.005523310376269351</v>
       </c>
       <c r="AU15" t="n">
         <v>0.3684210526315789</v>
@@ -8203,7 +8203,7 @@
         <v>0.02464026867068912</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.0668807327747345</v>
+        <v>0.06688072851725987</v>
       </c>
       <c r="AX15" t="n">
         <v>25.60526315789474</v>
@@ -8212,7 +8212,7 @@
         <v>0.02642472365282868</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.00103200351836625</v>
+        <v>0.001032003640883505</v>
       </c>
       <c r="BA15" t="n">
         <v>50.704132</v>
@@ -8368,7 +8368,7 @@
         <v>0.00158730158730159</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.0452237450159513</v>
+        <v>0.045223749600924</v>
       </c>
       <c r="DA15" t="n">
         <v>0.0769230769230769</v>
@@ -8392,7 +8392,7 @@
         <v>44.9736842105263</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.00710919337219631</v>
+        <v>0.0071091928141657</v>
       </c>
       <c r="DI15" t="n">
         <v>0.0825043885313049</v>
@@ -8521,10 +8521,10 @@
         <v>35.05263157894737</v>
       </c>
       <c r="EY15" t="n">
-        <v>1.583295031622248</v>
+        <v>1.583295006525556</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.8076108431345538</v>
+        <v>0.8076108509772703</v>
       </c>
       <c r="FA15" t="n">
         <v>-0.01020903993201883</v>
@@ -8536,10 +8536,10 @@
         <v>0.7449411136147223</v>
       </c>
       <c r="FD15" t="n">
-        <v>-0.2190636640062203</v>
+        <v>-0.2190636636034863</v>
       </c>
       <c r="FE15" t="n">
-        <v>1.597272942479896</v>
+        <v>1.597272948754069</v>
       </c>
       <c r="FF15" t="n">
         <v>0.6877665491284508</v>
@@ -8585,7 +8585,7 @@
         <v>-11</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.5547743</v>
+        <v>-3.5547755</v>
       </c>
       <c r="D16" t="n">
         <v>8.921052631578947</v>
@@ -8612,13 +8612,13 @@
         <v>0.08044820689873709</v>
       </c>
       <c r="L16" t="n">
-        <v>18.19578925838864</v>
+        <v>18.1957863776733</v>
       </c>
       <c r="M16" t="n">
         <v>18.86650955578513</v>
       </c>
       <c r="N16" t="n">
-        <v>16.52243828527706</v>
+        <v>16.52243954373389</v>
       </c>
       <c r="O16" t="n">
         <v>182.3684210526316</v>
@@ -8627,13 +8627,13 @@
         <v>0.4933306446423575</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.8664162886042642</v>
+        <v>0.8664162886042641</v>
       </c>
       <c r="R16" t="n">
         <v>2.848576696773896</v>
       </c>
       <c r="S16" t="n">
-        <v>43.98128997093023</v>
+        <v>43.9812863372093</v>
       </c>
       <c r="T16" t="n">
         <v>0.4057553956834533</v>
@@ -8681,7 +8681,7 @@
         <v>0.1960478553450421</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.08929437971384512</v>
+        <v>0.0892943904898261</v>
       </c>
       <c r="AJ16" t="n">
         <v>16.62678346795551</v>
@@ -8690,7 +8690,7 @@
         <v>17.1770462566361</v>
       </c>
       <c r="AL16" t="n">
-        <v>15.12659719366776</v>
+        <v>15.12659590871711</v>
       </c>
       <c r="AM16" t="n">
         <v>2.552631578947369</v>
@@ -8705,7 +8705,7 @@
         <v>0.100309074513222</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.03176453709602356</v>
+        <v>0.03176453908284505</v>
       </c>
       <c r="AR16" t="n">
         <v>14</v>
@@ -8870,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.0367746855083265</v>
+        <v>0.0367746823712399</v>
       </c>
       <c r="CU16" t="n">
         <v>0.368421052631579</v>
@@ -8894,7 +8894,7 @@
         <v>0.0909090909090909</v>
       </c>
       <c r="DB16" t="n">
-        <v>0.000185133911544782</v>
+        <v>0.000185133893762966</v>
       </c>
       <c r="DC16" t="n">
         <v>0.00477326968973747</v>
@@ -8912,7 +8912,7 @@
         <v>40.8157894736842</v>
       </c>
       <c r="DH16" t="n">
-        <v>0.00451713896504838</v>
+        <v>0.00451713835017132</v>
       </c>
       <c r="DI16" t="n">
         <v>0.06254029658284981</v>
@@ -8927,7 +8927,7 @@
         <v>42.3157894736842</v>
       </c>
       <c r="DM16" t="n">
-        <v>0.00463297177310014</v>
+        <v>0.00463297118001909</v>
       </c>
       <c r="DN16" t="n">
         <v>0.0590796019900498</v>
@@ -9041,7 +9041,7 @@
         <v>37.6578947368421</v>
       </c>
       <c r="EY16" t="n">
-        <v>1.212555646700294</v>
+        <v>1.212555643563208</v>
       </c>
       <c r="EZ16" t="n">
         <v>0.6049300813312201</v>
@@ -9050,7 +9050,7 @@
         <v>-0.08758028023140996</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.3522404018593462</v>
+        <v>0.3522404026436178</v>
       </c>
       <c r="FC16" t="n">
         <v>0.575951243701734</v>
@@ -9129,31 +9129,31 @@
         <v>0.2542271494473282</v>
       </c>
       <c r="K17" t="n">
-        <v>0.08137611785492339</v>
+        <v>0.0813761129007711</v>
       </c>
       <c r="L17" t="n">
-        <v>17.31085125811688</v>
+        <v>17.3108499898539</v>
       </c>
       <c r="M17" t="n">
         <v>18.14293988081661</v>
       </c>
       <c r="N17" t="n">
-        <v>15.25685683241836</v>
+        <v>15.2568579321509</v>
       </c>
       <c r="O17" t="n">
         <v>185.0263157894737</v>
       </c>
       <c r="P17" t="n">
-        <v>0.5033087662530538</v>
+        <v>0.5033087662530537</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.8525687384861033</v>
+        <v>0.8525689431824975</v>
       </c>
       <c r="R17" t="n">
         <v>2.876991709470106</v>
       </c>
       <c r="S17" t="n">
-        <v>36.40626995530013</v>
+        <v>36.40627244971265</v>
       </c>
       <c r="T17" t="n">
         <v>0.5</v>
@@ -9201,10 +9201,10 @@
         <v>0.3057197793999589</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.0888495956879317</v>
+        <v>0.08884961206002297</v>
       </c>
       <c r="AJ17" t="n">
-        <v>16.93144049255633</v>
+        <v>16.93144258818401</v>
       </c>
       <c r="AK17" t="n">
         <v>17.86287506913717</v>
@@ -9243,7 +9243,7 @@
         <v>0.082337800156031</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.1251534652709961</v>
+        <v>0.1251534557342529</v>
       </c>
       <c r="AX17" t="n">
         <v>22.18421052631579</v>
@@ -9399,7 +9399,7 @@
         <v>0.029126213592233</v>
       </c>
       <c r="CW17" t="n">
-        <v>0.00497559304702153</v>
+        <v>0.00497559261666308</v>
       </c>
       <c r="CX17" t="n">
         <v>0.0415162454873646</v>
@@ -9432,7 +9432,7 @@
         <v>41.1052631578947</v>
       </c>
       <c r="DH17" t="n">
-        <v>0.00618478430675941</v>
+        <v>0.00618478308566554</v>
       </c>
       <c r="DI17" t="n">
         <v>0.0710627400768246</v>
@@ -9447,7 +9447,7 @@
         <v>41.3684210526316</v>
       </c>
       <c r="DM17" t="n">
-        <v>0.00739017455025787</v>
+        <v>0.00739017333693177</v>
       </c>
       <c r="DN17" t="n">
         <v>0.08078880407124681</v>
@@ -9564,16 +9564,16 @@
         <v>1.239446011813063</v>
       </c>
       <c r="EZ17" t="n">
-        <v>0.5620959577101626</v>
+        <v>0.5620959584944343</v>
       </c>
       <c r="FA17" t="n">
         <v>-0.2316514559482273</v>
       </c>
       <c r="FB17" t="n">
-        <v>0.2281736145286184</v>
+        <v>0.2281736141364825</v>
       </c>
       <c r="FC17" t="n">
-        <v>0.6668443197482511</v>
+        <v>0.666844322101066</v>
       </c>
       <c r="FD17" t="n">
         <v>0.01398378669431335</v>
@@ -9625,7 +9625,7 @@
         <v>-7</v>
       </c>
       <c r="C18" t="n">
-        <v>-19.640182</v>
+        <v>-19.640184</v>
       </c>
       <c r="D18" t="n">
         <v>9.947368421052632</v>
@@ -9649,16 +9649,16 @@
         <v>0.1560404082319062</v>
       </c>
       <c r="K18" t="n">
-        <v>0.08456893194289435</v>
+        <v>0.08456892689699849</v>
       </c>
       <c r="L18" t="n">
-        <v>17.61290405919312</v>
+        <v>17.61290276744378</v>
       </c>
       <c r="M18" t="n">
-        <v>17.68227766577061</v>
+        <v>17.68227941588261</v>
       </c>
       <c r="N18" t="n">
-        <v>17.41738675820707</v>
+        <v>17.41738799124053</v>
       </c>
       <c r="O18" t="n">
         <v>177.3947368421053</v>
@@ -9667,13 +9667,13 @@
         <v>0.4993740298304393</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.860341755901866</v>
+        <v>0.8603418899955551</v>
       </c>
       <c r="R18" t="n">
         <v>2.570014942221309</v>
       </c>
       <c r="S18" t="n">
-        <v>35.67965255075705</v>
+        <v>35.67964717395045</v>
       </c>
       <c r="T18" t="n">
         <v>0.4170692431561997</v>
@@ -9685,13 +9685,13 @@
         <v>2.026315789473684</v>
       </c>
       <c r="W18" t="n">
-        <v>42.70787934491979</v>
+        <v>42.7078751671123</v>
       </c>
       <c r="X18" t="n">
         <v>12.10678531701891</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.527598633873842</v>
+        <v>3.527598288794006</v>
       </c>
       <c r="Z18" t="n">
         <v>0.8039141277241678</v>
@@ -9721,16 +9721,16 @@
         <v>0.3921785441374308</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.09577832405048489</v>
+        <v>0.09577831707663248</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15.74032364031079</v>
+        <v>15.74032185500457</v>
       </c>
       <c r="AK18" t="n">
-        <v>16.39233794341216</v>
+        <v>16.39234058277027</v>
       </c>
       <c r="AL18" t="n">
-        <v>14.37735175008828</v>
+        <v>14.37735312941384</v>
       </c>
       <c r="AM18" t="n">
         <v>4.315789473684211</v>
@@ -9745,7 +9745,7 @@
         <v>0.1042153137785039</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.02657840075908891</v>
+        <v>0.0265784023592136</v>
       </c>
       <c r="AR18" t="n">
         <v>15.1578947368421</v>
@@ -9910,7 +9910,7 @@
         <v>0</v>
       </c>
       <c r="CT18" t="n">
-        <v>0.0450107199805123</v>
+        <v>0.0450107327529362</v>
       </c>
       <c r="CU18" t="n">
         <v>0.477678571428571</v>
@@ -9919,7 +9919,7 @@
         <v>0.0133928571428571</v>
       </c>
       <c r="CW18" t="n">
-        <v>0.0067135806477398</v>
+        <v>0.00671358021027451</v>
       </c>
       <c r="CX18" t="n">
         <v>0.0825688073394495</v>
@@ -9928,7 +9928,7 @@
         <v>0.0018348623853211</v>
       </c>
       <c r="CZ18" t="n">
-        <v>0.0491132527589798</v>
+        <v>0.049113255739212</v>
       </c>
       <c r="DA18" t="n">
         <v>0.05</v>
@@ -9952,7 +9952,7 @@
         <v>38.5789473684211</v>
       </c>
       <c r="DH18" t="n">
-        <v>0.00404470321426287</v>
+        <v>0.00404470386479106</v>
       </c>
       <c r="DI18" t="n">
         <v>0.06753069577080489</v>
@@ -9967,7 +9967,7 @@
         <v>39.6315789473684</v>
       </c>
       <c r="DM18" t="n">
-        <v>0.009895607136476881</v>
+        <v>0.009895606503227</v>
       </c>
       <c r="DN18" t="n">
         <v>0.117529880478088</v>
@@ -10081,7 +10081,7 @@
         <v>44.55263157894737</v>
       </c>
       <c r="EY18" t="n">
-        <v>1.423534412133066</v>
+        <v>1.423534413701609</v>
       </c>
       <c r="EZ18" t="n">
         <v>0.4260296936293966</v>
@@ -10090,7 +10090,7 @@
         <v>-0.1453539943322539</v>
       </c>
       <c r="FB18" t="n">
-        <v>0.3082307319303876</v>
+        <v>0.3082307327146593</v>
       </c>
       <c r="FC18" t="n">
         <v>0.8691130217752958</v>
@@ -10665,7 +10665,7 @@
         <v>-18</v>
       </c>
       <c r="C20" t="n">
-        <v>-16.373999</v>
+        <v>-16.373993</v>
       </c>
       <c r="D20" t="n">
         <v>10.31578947368421</v>
@@ -10680,25 +10680,25 @@
         <v>3.026315789473684</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8623109573596403</v>
+        <v>0.8623109636338133</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6320319195327005</v>
+        <v>0.6320319179641573</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2302790465151989</v>
+        <v>0.2302790449466556</v>
       </c>
       <c r="K20" t="n">
-        <v>0.08359136386793486</v>
+        <v>0.08359137359930545</v>
       </c>
       <c r="L20" t="n">
-        <v>17.07252720424107</v>
+        <v>17.0725247130102</v>
       </c>
       <c r="M20" t="n">
-        <v>17.73285903655235</v>
+        <v>17.73285551105596</v>
       </c>
       <c r="N20" t="n">
-        <v>15.48198454483696</v>
+        <v>15.48198348335598</v>
       </c>
       <c r="O20" t="n">
         <v>176.7894736842105</v>
@@ -10710,10 +10710,10 @@
         <v>0.8783014821362106</v>
       </c>
       <c r="R20" t="n">
-        <v>2.569848870900384</v>
+        <v>2.569848870900383</v>
       </c>
       <c r="S20" t="n">
-        <v>31.95580490101612</v>
+        <v>31.95579942624387</v>
       </c>
       <c r="T20" t="n">
         <v>0.4858223062381852</v>
@@ -10761,16 +10761,16 @@
         <v>0.2254511280671546</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.1042282168203207</v>
+        <v>0.1042282088564433</v>
       </c>
       <c r="AJ20" t="n">
-        <v>16.55521145942067</v>
+        <v>16.55521247879697</v>
       </c>
       <c r="AK20" t="n">
-        <v>17.25757925278871</v>
+        <v>17.25757797121063</v>
       </c>
       <c r="AL20" t="n">
-        <v>13.82457499601403</v>
+        <v>13.8245774872449</v>
       </c>
       <c r="AM20" t="n">
         <v>3.921052631578947</v>
@@ -10785,7 +10785,7 @@
         <v>0.1629031459482289</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.03993754233083417</v>
+        <v>0.03993753925446541</v>
       </c>
       <c r="AR20" t="n">
         <v>17.52631578947368</v>
@@ -10803,7 +10803,7 @@
         <v>0.01953809384844805</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.04640297219157219</v>
+        <v>0.04640297591686249</v>
       </c>
       <c r="AX20" t="n">
         <v>19.42105263157895</v>
@@ -10950,7 +10950,7 @@
         <v>0</v>
       </c>
       <c r="CT20" t="n">
-        <v>0.0300240123973173</v>
+        <v>0.0300240095923929</v>
       </c>
       <c r="CU20" t="n">
         <v>0.341176470588235</v>
@@ -10992,7 +10992,7 @@
         <v>41.4473684210526</v>
       </c>
       <c r="DH20" t="n">
-        <v>0.00555593944731213</v>
+        <v>0.00555594005281963</v>
       </c>
       <c r="DI20" t="n">
         <v>0.07301587301587301</v>
@@ -11058,10 +11058,10 @@
         <v>-0.3684210526315789</v>
       </c>
       <c r="ED20" t="n">
-        <v>-0.4308946579694748</v>
+        <v>-0.4308946454211285</v>
       </c>
       <c r="EE20" t="n">
-        <v>-0.4515130684563988</v>
+        <v>-0.4515130621822257</v>
       </c>
       <c r="EF20" t="n">
         <v>2.605263157894737</v>
@@ -11121,37 +11121,37 @@
         <v>40.86842105263158</v>
       </c>
       <c r="EY20" t="n">
-        <v>1.418837032820049</v>
+        <v>1.41883704497626</v>
       </c>
       <c r="EZ20" t="n">
-        <v>0.4717059074655959</v>
+        <v>0.4717059247195721</v>
       </c>
       <c r="FA20" t="n">
-        <v>-0.09017487164390714</v>
+        <v>-0.09017487282031461</v>
       </c>
       <c r="FB20" t="n">
-        <v>0.1577897703177051</v>
+        <v>0.157789770513773</v>
       </c>
       <c r="FC20" t="n">
-        <v>0.9082835669580259</v>
+        <v>0.9082835434298766</v>
       </c>
       <c r="FD20" t="n">
-        <v>-0.02876721748984174</v>
+        <v>-0.0287672206269283</v>
       </c>
       <c r="FE20" t="n">
-        <v>1.865551485238891</v>
+        <v>1.865551441319679</v>
       </c>
       <c r="FF20" t="n">
-        <v>0.8294840729550311</v>
+        <v>0.8294840713864878</v>
       </c>
       <c r="FG20" t="n">
         <v>0.02722886557641782</v>
       </c>
       <c r="FH20" t="n">
-        <v>0.2327899680668978</v>
+        <v>0.2327899657140829</v>
       </c>
       <c r="FI20" t="n">
-        <v>0.8060512115296564</v>
+        <v>0.8060512036869401</v>
       </c>
       <c r="FJ20" t="n">
         <v>-0.02987102897053487</v>
@@ -11215,7 +11215,7 @@
         <v>17.69672740589489</v>
       </c>
       <c r="M21" t="n">
-        <v>17.97536954012784</v>
+        <v>17.97537323922822</v>
       </c>
       <c r="N21" t="n">
         <v>16.86079268022017</v>
@@ -11224,16 +11224,16 @@
         <v>183.6052631578947</v>
       </c>
       <c r="P21" t="n">
-        <v>0.4861608908421265</v>
+        <v>0.4861608908421264</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.8687200042899837</v>
+        <v>0.8687199341123339</v>
       </c>
       <c r="R21" t="n">
         <v>2.701022175673286</v>
       </c>
       <c r="S21" t="n">
-        <v>38.35325115405503</v>
+        <v>38.35325681118754</v>
       </c>
       <c r="T21" t="n">
         <v>0.4272863568215892</v>
@@ -11245,13 +11245,13 @@
         <v>1.842105263157895</v>
       </c>
       <c r="W21" t="n">
-        <v>43.12085838799806</v>
+        <v>43.12086218415938</v>
       </c>
       <c r="X21" t="n">
         <v>10.74975272007913</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.011334912611892</v>
+        <v>4.0113352657513</v>
       </c>
       <c r="Z21" t="n">
         <v>0.7994546621043627</v>
@@ -11281,13 +11281,13 @@
         <v>0.2915524656051083</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.09588171511280294</v>
+        <v>0.09588169954261001</v>
       </c>
       <c r="AJ21" t="n">
         <v>16.85240353954082</v>
       </c>
       <c r="AK21" t="n">
-        <v>17.55400418687141</v>
+        <v>17.55400558997845</v>
       </c>
       <c r="AL21" t="n">
         <v>15.13297411421655</v>
@@ -11305,7 +11305,7 @@
         <v>0.07810555388660807</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.02374408912658691</v>
+        <v>0.02374408721923828</v>
       </c>
       <c r="AR21" t="n">
         <v>15.81578947368421</v>
@@ -11323,7 +11323,7 @@
         <v>0.006541219258092736</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.02071386203169823</v>
+        <v>0.0207138607899348</v>
       </c>
       <c r="AX21" t="n">
         <v>21.76315789473684</v>
@@ -11470,7 +11470,7 @@
         <v>0.00120918984280532</v>
       </c>
       <c r="CT21" t="n">
-        <v>0.040104654370522</v>
+        <v>0.0401046495048367</v>
       </c>
       <c r="CU21" t="n">
         <v>0.413265306122449</v>
@@ -11494,7 +11494,7 @@
         <v>0.0625</v>
       </c>
       <c r="DB21" t="n">
-        <v>0.000276463519259276</v>
+        <v>0.000276463536115793</v>
       </c>
       <c r="DC21" t="n">
         <v>0.00565610859728507</v>
@@ -11527,7 +11527,7 @@
         <v>44.5263157894737</v>
       </c>
       <c r="DM21" t="n">
-        <v>0.00654786923816582</v>
+        <v>0.00654786811089121</v>
       </c>
       <c r="DN21" t="n">
         <v>0.0839243498817967</v>
@@ -11641,10 +11641,10 @@
         <v>44.63157894736842</v>
       </c>
       <c r="EY21" t="n">
-        <v>1.611318989852933</v>
+        <v>1.611318996127107</v>
       </c>
       <c r="EZ21" t="n">
-        <v>0.4774288117003284</v>
+        <v>0.4774288113081926</v>
       </c>
       <c r="FA21" t="n">
         <v>-0.01392516846719541</v>
@@ -11659,7 +11659,7 @@
         <v>0.0214736615552714</v>
       </c>
       <c r="FE21" t="n">
-        <v>2.156844642209379</v>
+        <v>2.156844648483553</v>
       </c>
       <c r="FF21" t="n">
         <v>0.8081888040821803</v>
@@ -11671,7 +11671,7 @@
         <v>0.3250639676851662</v>
       </c>
       <c r="FI21" t="n">
-        <v>0.7366067980857272</v>
+        <v>0.7366067996542704</v>
       </c>
       <c r="FJ21" t="n">
         <v>0.1395790976423182</v>
